--- a/zchat/zchat多人聊天室协议.xlsx
+++ b/zchat/zchat多人聊天室协议.xlsx
@@ -158,10 +158,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用户详细信息字典</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用户名, 32位md5密码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -207,6 +203,10 @@
   </si>
   <si>
     <t>用户信息字典的列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户详细信息列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -551,8 +551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -579,13 +579,13 @@
         <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -609,7 +609,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>9</v>
@@ -649,7 +649,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
@@ -673,7 +673,7 @@
         <v>15</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>5</v>
@@ -689,7 +689,7 @@
         <v>8</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
@@ -697,7 +697,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>5</v>
@@ -731,7 +731,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>5</v>
@@ -765,13 +765,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
@@ -791,7 +791,7 @@
         <v>7</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
@@ -799,7 +799,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>5</v>
@@ -833,7 +833,7 @@
         <v>20</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>21</v>
@@ -849,17 +849,11 @@
         <v>22</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="B22:B24"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="B9:B10"/>
@@ -876,6 +870,12 @@
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="B22:B24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
